--- a/pessoal/Controle de despesas.xlsx
+++ b/pessoal/Controle de despesas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="3 - Gastos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2 - Contas'!$B$10:$G$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2 - Contas'!$B$10:$G$213</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3 - Gastos'!$B$10:$E$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="171">
   <si>
     <t>Data</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Salário</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -3468,11 +3471,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L221"/>
+  <dimension ref="B1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3507,8 +3510,8 @@
         <v>32</v>
       </c>
       <c r="D7" s="11">
-        <f>SUBTOTAL(9,D11:D221)</f>
-        <v>27971.940000000024</v>
+        <f>SUBTOTAL(9,D11:D222)</f>
+        <v>27972.940000000024</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -6414,44 +6417,44 @@
       <c r="H145" s="51"/>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="21">
+      <c r="B146" s="17">
+        <v>42613</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" s="19">
+        <v>1</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F146" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" s="51"/>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="21">
         <v>42611</v>
       </c>
-      <c r="C146" s="22" t="s">
+      <c r="C147" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D146" s="23">
+      <c r="D147" s="23">
         <v>50</v>
       </c>
-      <c r="E146" s="22" t="s">
+      <c r="E147" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F146" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" s="51"/>
-    </row>
-    <row r="147" spans="2:8">
-      <c r="B147" s="17">
-        <v>42607</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D147" s="19">
-        <v>30</v>
-      </c>
-      <c r="E147" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="17">
-        <v>42607</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>35</v>
+      <c r="F147" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="H147" s="51"/>
     </row>
@@ -6460,10 +6463,10 @@
         <v>42607</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D148" s="19">
-        <v>331.69</v>
+        <v>30</v>
       </c>
       <c r="E148" s="18" t="s">
         <v>23</v>
@@ -6477,148 +6480,148 @@
       <c r="H148" s="51"/>
     </row>
     <row r="149" spans="2:8">
-      <c r="B149" s="27">
+      <c r="B149" s="17">
+        <v>42607</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="19">
+        <v>331.69</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" s="17">
+        <v>42607</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H149" s="51"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="27">
         <v>42608</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C150" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D149" s="26">
+      <c r="D150" s="26">
         <v>198.36</v>
       </c>
-      <c r="E149" s="28" t="s">
+      <c r="E150" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F149" s="27">
+      <c r="F150" s="27">
         <v>42608</v>
       </c>
-      <c r="G149" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H149" s="51"/>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="17">
+      <c r="G150" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150" s="51"/>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="17">
         <v>42610</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C151" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D151" s="19">
         <v>30</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E151" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F150" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H150" s="51"/>
-    </row>
-    <row r="151" spans="2:8">
-      <c r="B151" s="53">
+      <c r="F151" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H151" s="51"/>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="53">
         <v>42611</v>
       </c>
-      <c r="C151" s="54" t="s">
+      <c r="C152" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D151" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E151" s="54" t="s">
+      <c r="D152" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F151" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G151" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H151" s="51"/>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="17">
+      <c r="F152" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G152" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="51"/>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="17">
         <v>42613</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C153" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D153" s="19">
         <v>276.41000000000003</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E153" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F153" s="17">
         <v>42613</v>
       </c>
-      <c r="G152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H152" s="51"/>
-    </row>
-    <row r="153" spans="2:8">
-      <c r="B153" s="21">
-        <v>42644</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D153" s="23">
-        <v>54.99</v>
-      </c>
-      <c r="E153" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>27</v>
+      <c r="G153" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="H153" s="51"/>
     </row>
     <row r="154" spans="2:8">
       <c r="B154" s="21">
+        <v>42644</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" s="23">
+        <v>54.99</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G154" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" s="51"/>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="21">
         <v>42619</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C155" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D154" s="23">
+      <c r="D155" s="23">
         <v>58</v>
       </c>
-      <c r="E154" s="22" t="s">
+      <c r="E155" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F154" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H154" s="51"/>
-    </row>
-    <row r="155" spans="2:8">
-      <c r="B155" s="53">
-        <v>42620</v>
-      </c>
-      <c r="C155" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D155" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E155" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F155" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G155" s="56" t="s">
+      <c r="F155" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G155" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H155" s="51"/>
@@ -6628,118 +6631,118 @@
         <v>42620</v>
       </c>
       <c r="C156" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D156" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F156" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G156" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" s="51"/>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="53">
+        <v>42620</v>
+      </c>
+      <c r="C157" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D156" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E156" s="54" t="s">
+      <c r="D157" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F156" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G156" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H156" s="51"/>
-    </row>
-    <row r="157" spans="2:8">
-      <c r="B157" s="21">
-        <v>42620</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D157" s="23">
-        <v>674.65</v>
-      </c>
-      <c r="E157" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F157" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G157" s="24" t="s">
+      <c r="F157" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H157" s="51"/>
     </row>
     <row r="158" spans="2:8">
       <c r="B158" s="21">
+        <v>42620</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D158" s="23">
+        <v>674.65</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F158" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G158" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" s="51"/>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="21">
         <v>42623</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="C159" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D158" s="23">
+      <c r="D159" s="23">
         <v>773.65</v>
       </c>
-      <c r="E158" s="22" t="s">
+      <c r="E159" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F158" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H158" s="51"/>
-    </row>
-    <row r="159" spans="2:8">
-      <c r="B159" s="53">
+      <c r="F159" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" s="51"/>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="53">
         <v>42633</v>
       </c>
-      <c r="C159" s="54" t="s">
+      <c r="C160" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D159" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E159" s="54" t="s">
+      <c r="D160" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F159" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G159" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H159" s="51"/>
-    </row>
-    <row r="160" spans="2:8">
-      <c r="B160" s="21">
-        <v>42636</v>
-      </c>
-      <c r="C160" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D160" s="23">
-        <v>20.5</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" s="24" t="s">
+      <c r="F160" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G160" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H160" s="51"/>
     </row>
     <row r="161" spans="2:8">
       <c r="B161" s="21">
-        <v>42638</v>
+        <v>42636</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D161" s="23">
-        <v>30</v>
+        <v>20.5</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F161" s="21" t="s">
         <v>27</v>
@@ -6754,13 +6757,13 @@
         <v>42638</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="D162" s="23">
+        <v>30</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="F162" s="21" t="s">
         <v>27</v>
@@ -6772,79 +6775,79 @@
     </row>
     <row r="163" spans="2:8">
       <c r="B163" s="21">
+        <v>42638</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H163" s="51"/>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="21">
         <v>42641</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C164" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D163" s="23">
+      <c r="D164" s="23">
         <v>30</v>
       </c>
-      <c r="E163" s="22" t="s">
+      <c r="E164" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F163" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H163" s="51"/>
-    </row>
-    <row r="164" spans="2:8">
-      <c r="B164" s="53">
+      <c r="F164" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" s="51"/>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="53">
         <v>42642</v>
       </c>
-      <c r="C164" s="54" t="s">
+      <c r="C165" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D164" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E164" s="54" t="s">
+      <c r="D165" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F164" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H164" s="51"/>
-    </row>
-    <row r="165" spans="2:8">
-      <c r="B165" s="21">
-        <v>42643</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D165" s="23">
-        <v>276.41000000000003</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F165" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G165" s="24" t="s">
+      <c r="F165" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H165" s="51"/>
     </row>
     <row r="166" spans="2:8">
       <c r="B166" s="21">
-        <v>42644</v>
+        <v>42643</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D166" s="23">
-        <v>54.99</v>
+        <v>276.41000000000003</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F166" s="21" t="s">
         <v>27</v>
@@ -6856,42 +6859,42 @@
     </row>
     <row r="167" spans="2:8">
       <c r="B167" s="21">
+        <v>42644</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167" s="23">
+        <v>54.99</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="51"/>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="21">
         <v>42649</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C168" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D167" s="23">
+      <c r="D168" s="23">
         <v>58</v>
       </c>
-      <c r="E167" s="22" t="s">
+      <c r="E168" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F167" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H167" s="51"/>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="B168" s="53">
-        <v>42650</v>
-      </c>
-      <c r="C168" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D168" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E168" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F168" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G168" s="56" t="s">
+      <c r="F168" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G168" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H168" s="51"/>
@@ -6901,118 +6904,118 @@
         <v>42650</v>
       </c>
       <c r="C169" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D169" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F169" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" s="51"/>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="53">
+        <v>42650</v>
+      </c>
+      <c r="C170" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D169" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E169" s="54" t="s">
+      <c r="D170" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F169" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H169" s="51"/>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="B170" s="21">
-        <v>42650</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D170" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G170" s="24" t="s">
+      <c r="F170" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G170" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H170" s="51"/>
     </row>
     <row r="171" spans="2:8">
       <c r="B171" s="21">
+        <v>42650</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G171" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H171" s="51"/>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="21">
         <v>42653</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C172" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D171" s="23">
+      <c r="D172" s="23">
         <v>773.65</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E172" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F171" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H171" s="51"/>
-    </row>
-    <row r="172" spans="2:8" ht="15.75">
-      <c r="B172" s="57">
+      <c r="F172" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G172" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" s="51"/>
+    </row>
+    <row r="173" spans="2:8" ht="15.75">
+      <c r="B173" s="57">
         <v>42663</v>
       </c>
-      <c r="C172" s="58" t="s">
+      <c r="C173" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D172" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E172" s="58" t="s">
+      <c r="D173" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F172" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H172" s="51"/>
-    </row>
-    <row r="173" spans="2:8">
-      <c r="B173" s="21">
-        <v>42666</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D173" s="23">
-        <v>20.5</v>
-      </c>
-      <c r="E173" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F173" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" s="24" t="s">
+      <c r="F173" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173" s="60" t="s">
         <v>27</v>
       </c>
       <c r="H173" s="51"/>
     </row>
     <row r="174" spans="2:8">
       <c r="B174" s="21">
-        <v>42668</v>
+        <v>42666</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D174" s="23">
-        <v>30</v>
+        <v>20.5</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F174" s="21" t="s">
         <v>27</v>
@@ -7027,13 +7030,13 @@
         <v>42668</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" s="23" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="D175" s="23">
+        <v>30</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="F175" s="21" t="s">
         <v>27</v>
@@ -7045,79 +7048,79 @@
     </row>
     <row r="176" spans="2:8">
       <c r="B176" s="21">
+        <v>42668</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E176" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H176" s="51"/>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="21">
         <v>42671</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C177" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D176" s="23">
+      <c r="D177" s="23">
         <v>30</v>
       </c>
-      <c r="E176" s="22" t="s">
+      <c r="E177" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F176" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G176" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H176" s="51"/>
-    </row>
-    <row r="177" spans="2:8">
-      <c r="B177" s="53">
+      <c r="F177" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H177" s="51"/>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="53">
         <v>42672</v>
       </c>
-      <c r="C177" s="54" t="s">
+      <c r="C178" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D177" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E177" s="54" t="s">
+      <c r="D178" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E178" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F177" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G177" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H177" s="51"/>
-    </row>
-    <row r="178" spans="2:8">
-      <c r="B178" s="21">
-        <v>42674</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D178" s="23">
-        <v>276.41000000000003</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F178" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" s="24" t="s">
+      <c r="F178" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G178" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H178" s="51"/>
     </row>
     <row r="179" spans="2:8">
       <c r="B179" s="21">
-        <v>42675</v>
+        <v>42674</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D179" s="23">
-        <v>54.99</v>
+        <v>276.41000000000003</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F179" s="21" t="s">
         <v>27</v>
@@ -7129,42 +7132,42 @@
     </row>
     <row r="180" spans="2:8">
       <c r="B180" s="21">
+        <v>42675</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D180" s="23">
+        <v>54.99</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G180" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" s="51"/>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="B181" s="21">
         <v>42680</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C181" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D180" s="23">
+      <c r="D181" s="23">
         <v>58</v>
       </c>
-      <c r="E180" s="22" t="s">
+      <c r="E181" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F180" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H180" s="51"/>
-    </row>
-    <row r="181" spans="2:8">
-      <c r="B181" s="53">
-        <v>42681</v>
-      </c>
-      <c r="C181" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D181" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E181" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F181" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G181" s="56" t="s">
+      <c r="F181" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G181" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H181" s="51"/>
@@ -7174,118 +7177,118 @@
         <v>42681</v>
       </c>
       <c r="C182" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D182" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E182" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F182" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G182" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" s="51"/>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="B183" s="53">
+        <v>42681</v>
+      </c>
+      <c r="C183" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D182" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E182" s="54" t="s">
+      <c r="D183" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F182" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" s="51"/>
-    </row>
-    <row r="183" spans="2:8">
-      <c r="B183" s="21">
-        <v>42681</v>
-      </c>
-      <c r="C183" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D183" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E183" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F183" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G183" s="24" t="s">
+      <c r="F183" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G183" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H183" s="51"/>
     </row>
     <row r="184" spans="2:8">
       <c r="B184" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F184" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G184" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H184" s="51"/>
+    </row>
+    <row r="185" spans="2:8">
+      <c r="B185" s="21">
         <v>42684</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C185" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D184" s="23">
+      <c r="D185" s="23">
         <v>773.65</v>
       </c>
-      <c r="E184" s="22" t="s">
+      <c r="E185" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F184" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H184" s="51"/>
-    </row>
-    <row r="185" spans="2:8">
-      <c r="B185" s="53">
+      <c r="F185" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G185" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H185" s="51"/>
+    </row>
+    <row r="186" spans="2:8">
+      <c r="B186" s="53">
         <v>42694</v>
       </c>
-      <c r="C185" s="54" t="s">
+      <c r="C186" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D185" s="55">
+      <c r="D186" s="55">
         <v>79.900000000000006</v>
       </c>
-      <c r="E185" s="54" t="s">
+      <c r="E186" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F185" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G185" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H185" s="51"/>
-    </row>
-    <row r="186" spans="2:8">
-      <c r="B186" s="21">
-        <v>42697</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D186" s="23">
-        <v>20.5</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F186" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" s="24" t="s">
+      <c r="F186" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G186" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H186" s="51"/>
     </row>
     <row r="187" spans="2:8">
       <c r="B187" s="21">
-        <v>42699</v>
+        <v>42697</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D187" s="23">
-        <v>30</v>
+        <v>20.5</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F187" s="21" t="s">
         <v>27</v>
@@ -7300,13 +7303,13 @@
         <v>42699</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="D188" s="23">
+        <v>30</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="F188" s="21" t="s">
         <v>27</v>
@@ -7318,79 +7321,79 @@
     </row>
     <row r="189" spans="2:8">
       <c r="B189" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F189" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" s="51"/>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="B190" s="21">
         <v>42702</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C190" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D189" s="23">
+      <c r="D190" s="23">
         <v>30</v>
       </c>
-      <c r="E189" s="22" t="s">
+      <c r="E190" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F189" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G189" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H189" s="51"/>
-    </row>
-    <row r="190" spans="2:8">
-      <c r="B190" s="53">
+      <c r="F190" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H190" s="51"/>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="B191" s="53">
         <v>42703</v>
       </c>
-      <c r="C190" s="54" t="s">
+      <c r="C191" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D190" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E190" s="54" t="s">
+      <c r="D191" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F190" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G190" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H190" s="51"/>
-    </row>
-    <row r="191" spans="2:8">
-      <c r="B191" s="21">
-        <v>42704</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D191" s="23">
-        <v>276.41000000000003</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F191" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G191" s="24" t="s">
+      <c r="F191" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G191" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H191" s="51"/>
     </row>
     <row r="192" spans="2:8">
       <c r="B192" s="21">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D192" s="23">
-        <v>54.99</v>
+        <v>276.41000000000003</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F192" s="21" t="s">
         <v>27</v>
@@ -7402,42 +7405,42 @@
     </row>
     <row r="193" spans="2:8">
       <c r="B193" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D193" s="23">
+        <v>54.99</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F193" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G193" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H193" s="51"/>
+    </row>
+    <row r="194" spans="2:8">
+      <c r="B194" s="21">
         <v>42710</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C194" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D193" s="23">
+      <c r="D194" s="23">
         <v>58</v>
       </c>
-      <c r="E193" s="22" t="s">
+      <c r="E194" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F193" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G193" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H193" s="51"/>
-    </row>
-    <row r="194" spans="2:8">
-      <c r="B194" s="53">
-        <v>42711</v>
-      </c>
-      <c r="C194" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D194" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E194" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F194" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G194" s="56" t="s">
+      <c r="F194" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G194" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H194" s="51"/>
@@ -7447,102 +7450,102 @@
         <v>42711</v>
       </c>
       <c r="C195" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D195" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F195" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G195" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H195" s="51"/>
+    </row>
+    <row r="196" spans="2:8">
+      <c r="B196" s="53">
+        <v>42711</v>
+      </c>
+      <c r="C196" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D195" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E195" s="54" t="s">
+      <c r="D196" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F195" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G195" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H195" s="51"/>
-    </row>
-    <row r="196" spans="2:8">
-      <c r="B196" s="21">
-        <v>42711</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D196" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E196" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F196" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G196" s="24" t="s">
+      <c r="F196" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G196" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H196" s="51"/>
     </row>
     <row r="197" spans="2:8">
       <c r="B197" s="21">
+        <v>42711</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F197" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G197" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H197" s="51"/>
+    </row>
+    <row r="198" spans="2:8">
+      <c r="B198" s="21">
         <v>42714</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C198" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D197" s="49">
+      <c r="D198" s="49">
         <v>773.65</v>
       </c>
-      <c r="E197" s="22" t="s">
+      <c r="E198" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F197" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G197" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H197" s="51"/>
-    </row>
-    <row r="198" spans="2:8">
-      <c r="B198" s="53">
+      <c r="F198" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G198" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H198" s="51"/>
+    </row>
+    <row r="199" spans="2:8">
+      <c r="B199" s="53">
         <v>42724</v>
       </c>
-      <c r="C198" s="54" t="s">
+      <c r="C199" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D198" s="61">
+      <c r="D199" s="61">
         <v>79.900000000000006</v>
       </c>
-      <c r="E198" s="54" t="s">
+      <c r="E199" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F198" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G198" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H198" s="51"/>
-    </row>
-    <row r="199" spans="2:8">
-      <c r="B199" s="21">
-        <v>42729</v>
-      </c>
-      <c r="C199" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D199" s="49">
-        <v>30</v>
-      </c>
-      <c r="E199" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F199" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G199" s="24" t="s">
+      <c r="F199" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G199" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H199" s="51"/>
@@ -7552,13 +7555,13 @@
         <v>42729</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" s="49" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="D200" s="49">
+        <v>30</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="F200" s="21" t="s">
         <v>27</v>
@@ -7570,301 +7573,301 @@
     </row>
     <row r="201" spans="2:8">
       <c r="B201" s="21">
+        <v>42729</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G201" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H201" s="51"/>
+    </row>
+    <row r="202" spans="2:8">
+      <c r="B202" s="21">
         <v>42732</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C202" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D201" s="49">
+      <c r="D202" s="49">
         <v>30</v>
       </c>
-      <c r="E201" s="22" t="s">
+      <c r="E202" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F201" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G201" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H201" s="51"/>
-    </row>
-    <row r="202" spans="2:8">
-      <c r="B202" s="53">
+      <c r="F202" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H202" s="51"/>
+    </row>
+    <row r="203" spans="2:8">
+      <c r="B203" s="53">
         <v>42733</v>
       </c>
-      <c r="C202" s="54" t="s">
+      <c r="C203" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D202" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E202" s="54" t="s">
+      <c r="D203" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F202" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G202" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H202" s="51"/>
-    </row>
-    <row r="203" spans="2:8">
-      <c r="B203" s="21">
+      <c r="F203" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G203" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H203" s="51"/>
+    </row>
+    <row r="204" spans="2:8">
+      <c r="B204" s="21">
         <v>42735</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C204" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D203" s="49">
+      <c r="D204" s="49">
         <v>276.41000000000003</v>
       </c>
-      <c r="E203" s="22" t="s">
+      <c r="E204" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F203" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G203" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H203" s="51"/>
-    </row>
-    <row r="204" spans="2:8">
-      <c r="B204" s="53">
-        <v>42742</v>
-      </c>
-      <c r="C204" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D204" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E204" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F204" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G204" s="56" t="s">
+      <c r="F204" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G204" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H204" s="51"/>
     </row>
     <row r="205" spans="2:8">
       <c r="B205" s="53">
+        <v>42742</v>
+      </c>
+      <c r="C205" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D205" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E205" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F205" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G205" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H205" s="51"/>
+    </row>
+    <row r="206" spans="2:8">
+      <c r="B206" s="53">
         <v>42755</v>
       </c>
-      <c r="C205" s="54" t="s">
+      <c r="C206" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D205" s="61">
+      <c r="D206" s="61">
         <v>79.900000000000006</v>
       </c>
-      <c r="E205" s="54" t="s">
+      <c r="E206" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F205" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G205" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H205" s="51"/>
-    </row>
-    <row r="206" spans="2:8">
-      <c r="B206" s="21">
+      <c r="F206" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G206" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H206" s="51"/>
+    </row>
+    <row r="207" spans="2:8">
+      <c r="B207" s="21">
         <v>42766</v>
       </c>
-      <c r="C206" s="22" t="s">
+      <c r="C207" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D206" s="49">
+      <c r="D207" s="49">
         <v>276.41000000000003</v>
       </c>
-      <c r="E206" s="22" t="s">
+      <c r="E207" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F206" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G206" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H206" s="51"/>
-    </row>
-    <row r="207" spans="2:8">
-      <c r="B207" s="53">
+      <c r="F207" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G207" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H207" s="51"/>
+    </row>
+    <row r="208" spans="2:8">
+      <c r="B208" s="53">
         <v>42773</v>
       </c>
-      <c r="C207" s="54" t="s">
+      <c r="C208" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D207" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E207" s="54" t="s">
+      <c r="D208" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E208" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="F207" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G207" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H207" s="51"/>
-    </row>
-    <row r="208" spans="2:8">
-      <c r="B208" s="21">
+      <c r="F208" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G208" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H208" s="51"/>
+    </row>
+    <row r="209" spans="2:8">
+      <c r="B209" s="21">
         <v>42794</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C209" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D208" s="49">
+      <c r="D209" s="49">
         <v>276.41000000000003</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E209" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F208" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G208" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H208" s="51"/>
-    </row>
-    <row r="209" spans="2:8">
-      <c r="B209" s="53">
+      <c r="F209" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G209" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H209" s="51"/>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="B210" s="53">
         <v>42801</v>
       </c>
-      <c r="C209" s="54" t="s">
+      <c r="C210" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D209" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E209" s="54" t="s">
+      <c r="D210" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E210" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="F209" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G209" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H209" s="51"/>
-    </row>
-    <row r="210" spans="2:8">
-      <c r="B210" s="21">
+      <c r="F210" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G210" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H210" s="51"/>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="B211" s="21">
         <v>42825</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C211" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D210" s="49">
+      <c r="D211" s="49">
         <v>276.41000000000003</v>
       </c>
-      <c r="E210" s="22" t="s">
+      <c r="E211" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F210" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G210" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H210" s="51"/>
-    </row>
-    <row r="211" spans="2:8">
-      <c r="B211" s="53">
+      <c r="F211" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G211" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H211" s="51"/>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="B212" s="53">
         <v>42832</v>
       </c>
-      <c r="C211" s="54" t="s">
+      <c r="C212" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="D211" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E211" s="54" t="s">
+      <c r="D212" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="F211" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G211" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H211" s="51"/>
-    </row>
-    <row r="212" spans="2:8">
-      <c r="B212" s="21">
+      <c r="F212" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G212" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H212" s="51"/>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="B213" s="21">
         <v>42855</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C213" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D212" s="49">
+      <c r="D213" s="49">
         <v>276.41000000000003</v>
       </c>
-      <c r="E212" s="22" t="s">
+      <c r="E213" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F212" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G212" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H212" s="51"/>
-    </row>
-    <row r="213" spans="2:8">
-      <c r="B213" s="53">
+      <c r="F213" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G213" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H213" s="51"/>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="B214" s="53">
         <v>42862</v>
       </c>
-      <c r="C213" s="54" t="s">
+      <c r="C214" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D213" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E213" s="54" t="s">
+      <c r="D214" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="F213" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G213" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H213" s="51"/>
-    </row>
-    <row r="214" spans="2:8">
-      <c r="B214" s="21">
-        <v>42886</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D214" s="49">
-        <v>276.41000000000003</v>
-      </c>
-      <c r="E214" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F214" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G214" s="24" t="s">
+      <c r="F214" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G214" s="56" t="s">
         <v>27</v>
       </c>
       <c r="H214" s="51"/>
     </row>
     <row r="215" spans="2:8">
       <c r="B215" s="21">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="C215" s="22" t="s">
         <v>143</v>
@@ -7885,7 +7888,7 @@
     </row>
     <row r="216" spans="2:8">
       <c r="B216" s="21">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="C216" s="22" t="s">
         <v>143</v>
@@ -7905,12 +7908,24 @@
       <c r="H216" s="51"/>
     </row>
     <row r="217" spans="2:8">
-      <c r="B217" s="21"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="49"/>
-      <c r="E217" s="22"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="24"/>
+      <c r="B217" s="21">
+        <v>42947</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D217" s="49">
+        <v>276.41000000000003</v>
+      </c>
+      <c r="E217" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F217" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G217" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="H217" s="51"/>
     </row>
     <row r="218" spans="2:8">
@@ -7943,14 +7958,23 @@
     <row r="221" spans="2:8">
       <c r="B221" s="21"/>
       <c r="C221" s="22"/>
-      <c r="D221" s="23"/>
+      <c r="D221" s="49"/>
       <c r="E221" s="22"/>
       <c r="F221" s="21"/>
       <c r="G221" s="24"/>
       <c r="H221" s="51"/>
     </row>
+    <row r="222" spans="2:8">
+      <c r="B222" s="21"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="51"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B10:G212">
+  <autoFilter ref="B10:G213">
     <sortState ref="B11:G215">
       <sortCondition ref="B10:B211"/>
     </sortState>
